--- a/branches/HUFS/Documents/HUFS_EstimateNewRequest.xlsx
+++ b/branches/HUFS/Documents/HUFS_EstimateNewRequest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Screen</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Cung mot ma thuoc co the co bao hiem hoac khong bao hiem</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -513,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,6 +566,9 @@
       <c r="E4" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
@@ -580,6 +586,9 @@
       </c>
       <c r="E6" s="6" t="s">
         <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/branches/HUFS/Documents/HUFS_EstimateNewRequest.xlsx
+++ b/branches/HUFS/Documents/HUFS_EstimateNewRequest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Screen</t>
   </si>
@@ -145,13 +145,19 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Làm sau</t>
+  </si>
+  <si>
+    <t>Done Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +169,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -210,6 +223,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +552,7 @@
     <col min="5" max="5" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -545,71 +568,91 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="10">
+        <v>42010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="10">
+        <v>42010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
+      <c r="E7" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="10">
+        <v>42010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
@@ -618,7 +661,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -633,7 +676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>39</v>
       </c>
@@ -642,7 +685,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
@@ -656,7 +699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
@@ -664,7 +707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
@@ -672,7 +715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
@@ -683,7 +726,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>

--- a/branches/HUFS/Documents/HUFS_EstimateNewRequest.xlsx
+++ b/branches/HUFS/Documents/HUFS_EstimateNewRequest.xlsx
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/branches/HUFS/Documents/HUFS_EstimateNewRequest.xlsx
+++ b/branches/HUFS/Documents/HUFS_EstimateNewRequest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Screen</t>
   </si>
@@ -207,11 +207,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -233,6 +230,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,162 +554,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>42010</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="9">
+        <v>42041</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>42010</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
       <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>42010</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="11"/>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="9">
+        <v>42041</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="9">
+        <v>42041</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
@@ -716,60 +740,72 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="9">
+        <v>42041</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
         <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="9">
+        <v>42041</v>
       </c>
     </row>
   </sheetData>

--- a/branches/HUFS/Documents/HUFS_EstimateNewRequest.xlsx
+++ b/branches/HUFS/Documents/HUFS_EstimateNewRequest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
   <si>
     <t>Screen</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>Done Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khám bệnh có bảo hiểm-luu thuoc
+Nhập kho-Luu
+Xuất kho-Search
+</t>
+  </si>
+  <si>
+    <t>Danh mục thuốc phải có thông tin bảo hiểm</t>
+  </si>
+  <si>
+    <t>Chính sách giá phải có thông tin bảo hiểm</t>
   </si>
 </sst>
 </file>
@@ -538,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,11 +702,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
@@ -806,6 +820,16 @@
       </c>
       <c r="F20" s="9">
         <v>42041</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/branches/HUFS/Documents/HUFS_EstimateNewRequest.xlsx
+++ b/branches/HUFS/Documents/HUFS_EstimateNewRequest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Screen</t>
   </si>
@@ -163,13 +163,19 @@
   </si>
   <si>
     <t>Chính sách giá phải có thông tin bảo hiểm</t>
+  </si>
+  <si>
+    <t>Kiểm tra số lượng thuốc trong kho khi nhập thông tin thuốc</t>
+  </si>
+  <si>
+    <t>Luu thong tin giao dich thuoc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +194,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -245,6 +258,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,148 +703,181 @@
         <v>42041</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="11"/>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9">
+        <v>42100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11"/>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="9">
+        <v>42100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="9">
+        <v>42069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="E15" s="10"/>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="9">
         <v>42041</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="9">
         <v>42041</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="9">
         <v>42041</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
     </row>
